--- a/result/scenario3_default_WHO_10fold.xlsx
+++ b/result/scenario3_default_WHO_10fold.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Repository\ta-newsX\result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACEB32A-D859-4D96-A234-56569900717D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>acc_train</t>
   </si>
@@ -31,108 +36,28 @@
   <si>
     <t>f_score</t>
   </si>
-  <si>
-    <t>0.9621</t>
-  </si>
-  <si>
-    <t>0.9576</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>0.3333</t>
-  </si>
-  <si>
-    <t>0.4615</t>
-  </si>
-  <si>
-    <t>0.9455</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.1111</t>
-  </si>
-  <si>
-    <t>0.1818</t>
-  </si>
-  <si>
-    <t>0.9641</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.9634</t>
-  </si>
-  <si>
-    <t>0.9451</t>
-  </si>
-  <si>
-    <t>0.939</t>
-  </si>
-  <si>
-    <t>0.1667</t>
-  </si>
-  <si>
-    <t>0.9329</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>0.1538</t>
-  </si>
-  <si>
-    <t>0.9648</t>
-  </si>
-  <si>
-    <t>0.2222</t>
-  </si>
-  <si>
-    <t>0.3077</t>
-  </si>
-  <si>
-    <t>0.9632</t>
-  </si>
-  <si>
-    <t>0.375</t>
-  </si>
-  <si>
-    <t>0.9635</t>
-  </si>
-  <si>
-    <t>0.9509</t>
-  </si>
-  <si>
-    <t>0.4286</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -147,26 +72,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -454,20 +397,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,177 +423,177 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>0.96209999999999996</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.95760000000000001</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.46150000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>0.96209999999999996</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.93940000000000001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.1111</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.16669999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>0.96409999999999996</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>0.96279999999999999</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.95120000000000005</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.1111</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>0.96340000000000003</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.1111</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.16669999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>0.96340000000000003</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.93289999999999995</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>0.96340000000000003</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.93289999999999995</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.1111</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.15379999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>0.96479999999999999</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.94510000000000005</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.30769999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>0.96209999999999996</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.96930000000000005</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.61539999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>0.96350000000000002</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.95089999999999997</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.42859999999999998</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>